--- a/data_curation/dataset_tools.xlsx
+++ b/data_curation/dataset_tools.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,12 +89,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,23 +149,11 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,25 +463,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -651,7 +633,7 @@
       <c r="J3" s="4">
         <v>5.7</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="3">
         <v>1</v>
       </c>
@@ -661,7 +643,7 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="3">
         <v>5</v>
       </c>
@@ -718,7 +700,7 @@
       <c r="N4" s="3">
         <v>1</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="4"/>
       <c r="P4" s="3">
         <v>8</v>
       </c>
@@ -763,7 +745,7 @@
       <c r="J5" s="4">
         <v>7.1</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="3">
         <v>1</v>
       </c>
@@ -773,7 +755,7 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="5"/>
+      <c r="O5" s="4"/>
       <c r="P5" s="3">
         <v>6</v>
       </c>
@@ -827,8 +809,8 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="3">
         <v>6</v>
       </c>
@@ -876,7 +858,7 @@
       <c r="K7" s="4">
         <v>65.4</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3">
         <v>15</v>
       </c>
@@ -933,7 +915,7 @@
       <c r="K8" s="4">
         <v>58.4</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="3">
         <v>1</v>
       </c>
@@ -1117,7 +1099,7 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="3">
         <v>6</v>
       </c>
@@ -1398,7 +1380,7 @@
       <c r="J16" s="3">
         <v>22</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="3">
         <v>3</v>
       </c>
@@ -1408,7 +1390,7 @@
       <c r="N16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="3">
         <v>6</v>
       </c>
@@ -1465,7 +1447,7 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="3">
         <v>3</v>
       </c>
@@ -1631,7 +1613,7 @@
       <c r="K20" s="4">
         <v>84.1</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="3"/>
       <c r="M20" s="3">
         <v>15</v>
       </c>
@@ -1806,14 +1788,14 @@
       <c r="K23" s="4">
         <v>73.7</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>209</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
       </c>
-      <c r="O23" s="5"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3">
         <v>4</v>
       </c>
@@ -1920,7 +1902,7 @@
       <c r="K25" s="4">
         <v>80.9</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3">
         <v>20</v>
       </c>
@@ -1980,7 +1962,7 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2099,7 +2081,7 @@
       <c r="M28" s="3">
         <v>14</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="3"/>
       <c r="O28" s="3">
         <v>11</v>
       </c>
@@ -2209,7 +2191,7 @@
       <c r="K30" s="4">
         <v>83.7</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="3"/>
       <c r="M30" s="3">
         <v>15</v>
       </c>
@@ -2334,7 +2316,7 @@
       <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="O32" s="5"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="3">
         <v>4</v>
       </c>
@@ -2382,14 +2364,14 @@
       <c r="K33" s="4">
         <v>88.3</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="3"/>
       <c r="M33" s="3">
         <v>3</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="5"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="3">
         <v>5</v>
       </c>
@@ -2446,7 +2428,7 @@
       <c r="N34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="5"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="3">
         <v>6</v>
       </c>
@@ -2494,8 +2476,8 @@
       <c r="K35" s="4">
         <v>85.5</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="5"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2735,7 +2717,7 @@
       <c r="N39" s="3">
         <v>0</v>
       </c>
-      <c r="O39" s="5"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="3">
         <v>6</v>
       </c>
@@ -2783,7 +2765,7 @@
       <c r="K40" s="4">
         <v>80.8</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="3"/>
       <c r="M40" s="3">
         <v>12</v>
       </c>
@@ -2837,7 +2819,7 @@
       <c r="J41" s="4">
         <v>11.3</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2847,7 +2829,7 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="5"/>
+      <c r="O41" s="4"/>
       <c r="P41" s="3">
         <v>2</v>
       </c>
@@ -2904,7 +2886,7 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="5"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="3">
         <v>5</v>
       </c>
@@ -3064,12 +3046,12 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="5"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="3">
         <v>2</v>
       </c>
@@ -3126,7 +3108,7 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="5"/>
+      <c r="O46" s="4"/>
       <c r="P46" s="3">
         <v>9</v>
       </c>
@@ -3171,15 +3153,15 @@
       <c r="J47" s="3">
         <v>15</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="6"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="3"/>
       <c r="M47" s="3">
         <v>1</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="5"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="3">
         <v>6</v>
       </c>
@@ -3236,7 +3218,7 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="5"/>
+      <c r="O48" s="4"/>
       <c r="P48" s="3">
         <v>5</v>
       </c>
@@ -3293,7 +3275,7 @@
       <c r="N49" s="3">
         <v>1</v>
       </c>
-      <c r="O49" s="5"/>
+      <c r="O49" s="4"/>
       <c r="P49" s="3">
         <v>4</v>
       </c>
@@ -3347,8 +3329,8 @@
       <c r="M50" s="3">
         <v>4</v>
       </c>
-      <c r="N50" s="6"/>
-      <c r="O50" s="5"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="3">
         <v>7</v>
       </c>
@@ -3396,14 +3378,14 @@
       <c r="K51" s="4">
         <v>85.9</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="3"/>
       <c r="M51" s="3">
         <v>12</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
       </c>
-      <c r="O51" s="5"/>
+      <c r="O51" s="4"/>
       <c r="P51" s="3">
         <v>7</v>
       </c>
@@ -3578,7 +3560,7 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="5"/>
+      <c r="O54" s="4"/>
       <c r="P54" s="3">
         <v>5</v>
       </c>
@@ -3635,7 +3617,7 @@
       <c r="N55" s="3">
         <v>1</v>
       </c>
-      <c r="O55" s="5"/>
+      <c r="O55" s="4"/>
       <c r="P55" s="3">
         <v>5</v>
       </c>
@@ -3742,12 +3724,12 @@
       <c r="K57" s="3">
         <v>74</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="3"/>
       <c r="M57" s="3">
         <v>119</v>
       </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="5"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="3">
         <v>6</v>
       </c>
@@ -3795,7 +3777,7 @@
       <c r="K58" s="3">
         <v>84</v>
       </c>
-      <c r="L58" s="6"/>
+      <c r="L58" s="3"/>
       <c r="M58" s="3">
         <v>47</v>
       </c>
@@ -3979,7 +3961,7 @@
       <c r="N61" s="3">
         <v>1</v>
       </c>
-      <c r="O61" s="5"/>
+      <c r="O61" s="4"/>
       <c r="P61" s="3">
         <v>9</v>
       </c>
@@ -4021,7 +4003,7 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="4"/>
       <c r="K62" s="4">
         <v>68.9</v>
       </c>
@@ -4084,7 +4066,7 @@
       <c r="K63" s="4">
         <v>87.7</v>
       </c>
-      <c r="L63" s="6"/>
+      <c r="L63" s="3"/>
       <c r="M63" s="3">
         <v>13</v>
       </c>
@@ -4135,7 +4117,7 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="4"/>
       <c r="K64" s="3">
         <v>56</v>
       </c>
@@ -4148,7 +4130,7 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="5"/>
+      <c r="O64" s="4"/>
       <c r="P64" s="3">
         <v>3</v>
       </c>
@@ -4193,7 +4175,7 @@
       <c r="J65" s="3">
         <v>13</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="3">
         <v>3</v>
       </c>
@@ -4250,7 +4232,7 @@
       <c r="J66" s="4">
         <v>10.9</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="3">
         <v>3</v>
       </c>
@@ -4310,7 +4292,7 @@
       <c r="K67" s="3">
         <v>80</v>
       </c>
-      <c r="L67" s="6"/>
+      <c r="L67" s="3"/>
       <c r="M67" s="3">
         <v>8</v>
       </c>
@@ -4367,14 +4349,14 @@
       <c r="K68" s="4">
         <v>56.3</v>
       </c>
-      <c r="L68" s="6"/>
+      <c r="L68" s="3"/>
       <c r="M68" s="3">
         <v>1</v>
       </c>
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="5"/>
+      <c r="O68" s="4"/>
       <c r="P68" s="3">
         <v>5</v>
       </c>
@@ -4481,7 +4463,7 @@
       <c r="K70" s="4">
         <v>76.2</v>
       </c>
-      <c r="L70" s="6"/>
+      <c r="L70" s="3"/>
       <c r="M70" s="3">
         <v>16</v>
       </c>
@@ -4535,15 +4517,15 @@
       <c r="J71" s="4">
         <v>5.7</v>
       </c>
-      <c r="K71" s="5"/>
-      <c r="L71" s="6"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="3"/>
       <c r="M71" s="3">
         <v>1</v>
       </c>
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="5"/>
+      <c r="O71" s="4"/>
       <c r="P71" s="3">
         <v>2</v>
       </c>
@@ -4591,7 +4573,7 @@
       <c r="K72" s="4">
         <v>62.9</v>
       </c>
-      <c r="L72" s="6"/>
+      <c r="L72" s="3"/>
       <c r="M72" s="3">
         <v>14</v>
       </c>
@@ -4636,7 +4618,7 @@
       <c r="G73" s="3">
         <v>0</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73" s="3"/>
       <c r="I73" s="3">
         <v>0</v>
       </c>
@@ -4702,7 +4684,7 @@
       <c r="J74" s="4">
         <v>12.5</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="3">
         <v>0</v>
       </c>
@@ -4821,14 +4803,14 @@
       <c r="K76" s="4">
         <v>84.1</v>
       </c>
-      <c r="L76" s="6"/>
+      <c r="L76" s="3"/>
       <c r="M76" s="3">
         <v>71</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
       </c>
-      <c r="O76" s="5"/>
+      <c r="O76" s="4"/>
       <c r="P76" s="3">
         <v>7</v>
       </c>
@@ -4876,14 +4858,14 @@
       <c r="K77" s="4">
         <v>68.3</v>
       </c>
-      <c r="L77" s="6"/>
+      <c r="L77" s="3"/>
       <c r="M77" s="3">
         <v>101</v>
       </c>
       <c r="N77" s="3">
         <v>1</v>
       </c>
-      <c r="O77" s="5"/>
+      <c r="O77" s="4"/>
       <c r="P77" s="3">
         <v>6</v>
       </c>
@@ -4999,7 +4981,7 @@
       <c r="N79" s="3">
         <v>1</v>
       </c>
-      <c r="O79" s="5"/>
+      <c r="O79" s="4"/>
       <c r="P79" s="3">
         <v>4</v>
       </c>
@@ -5292,7 +5274,7 @@
       <c r="N84" s="3">
         <v>1</v>
       </c>
-      <c r="O84" s="5"/>
+      <c r="O84" s="4"/>
       <c r="P84" s="3">
         <v>4</v>
       </c>
@@ -5455,7 +5437,7 @@
       <c r="J87" s="4">
         <v>4.4</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="3">
         <v>3</v>
       </c>
@@ -5515,7 +5497,7 @@
       <c r="K88" s="3">
         <v>81</v>
       </c>
-      <c r="L88" s="6"/>
+      <c r="L88" s="3"/>
       <c r="M88" s="3">
         <v>6</v>
       </c>
@@ -5640,7 +5622,7 @@
       <c r="N90" s="3">
         <v>1</v>
       </c>
-      <c r="O90" s="5"/>
+      <c r="O90" s="4"/>
       <c r="P90" s="3">
         <v>3</v>
       </c>
@@ -5697,7 +5679,7 @@
       <c r="N91" s="3">
         <v>1</v>
       </c>
-      <c r="O91" s="5"/>
+      <c r="O91" s="4"/>
       <c r="P91" s="3">
         <v>6</v>
       </c>
@@ -5872,7 +5854,7 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="5"/>
+      <c r="O94" s="4"/>
       <c r="P94" s="3">
         <v>3</v>
       </c>
@@ -5917,15 +5899,15 @@
       <c r="J95" s="4">
         <v>10.4</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="6"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="3"/>
       <c r="M95" s="3">
         <v>133</v>
       </c>
       <c r="N95" s="3">
         <v>1</v>
       </c>
-      <c r="O95" s="5"/>
+      <c r="O95" s="4"/>
       <c r="P95" s="3">
         <v>8</v>
       </c>
@@ -6091,14 +6073,14 @@
       <c r="K98" s="3">
         <v>79</v>
       </c>
-      <c r="L98" s="6"/>
+      <c r="L98" s="3"/>
       <c r="M98" s="3">
         <v>234</v>
       </c>
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="5"/>
+      <c r="O98" s="4"/>
       <c r="P98" s="3">
         <v>10</v>
       </c>
@@ -6146,14 +6128,14 @@
       <c r="K99" s="4">
         <v>49.4</v>
       </c>
-      <c r="L99" s="6"/>
+      <c r="L99" s="3"/>
       <c r="M99" s="3">
         <v>0</v>
       </c>
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="5"/>
+      <c r="O99" s="4"/>
       <c r="P99" s="3">
         <v>2</v>
       </c>
@@ -6201,14 +6183,14 @@
       <c r="K100" s="3">
         <v>54</v>
       </c>
-      <c r="L100" s="6"/>
+      <c r="L100" s="3"/>
       <c r="M100" s="3">
         <v>1</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="5"/>
+      <c r="O100" s="4"/>
       <c r="P100" s="3">
         <v>6</v>
       </c>
@@ -6253,7 +6235,7 @@
       <c r="J101" s="4">
         <v>10.3</v>
       </c>
-      <c r="K101" s="5"/>
+      <c r="K101" s="4"/>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6263,7 +6245,7 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="5"/>
+      <c r="O101" s="4"/>
       <c r="P101" s="3">
         <v>5</v>
       </c>
@@ -6311,12 +6293,12 @@
       <c r="K102" s="3">
         <v>67</v>
       </c>
-      <c r="L102" s="6"/>
+      <c r="L102" s="3"/>
       <c r="M102" s="3">
         <v>57</v>
       </c>
-      <c r="N102" s="6"/>
-      <c r="O102" s="5"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="4"/>
       <c r="P102" s="3">
         <v>3</v>
       </c>
@@ -6364,7 +6346,7 @@
       <c r="K103" s="4">
         <v>86.6</v>
       </c>
-      <c r="L103" s="6"/>
+      <c r="L103" s="3"/>
       <c r="M103" s="3">
         <v>45</v>
       </c>
@@ -6421,14 +6403,14 @@
       <c r="K104" s="4">
         <v>89.2</v>
       </c>
-      <c r="L104" s="6"/>
+      <c r="L104" s="3"/>
       <c r="M104" s="3">
         <v>245</v>
       </c>
       <c r="N104" s="3">
         <v>0</v>
       </c>
-      <c r="O104" s="5"/>
+      <c r="O104" s="4"/>
       <c r="P104" s="3">
         <v>5</v>
       </c>
@@ -6476,7 +6458,7 @@
       <c r="K105" s="4">
         <v>62.7</v>
       </c>
-      <c r="L105" s="6"/>
+      <c r="L105" s="3"/>
       <c r="M105" s="3">
         <v>21</v>
       </c>
@@ -6710,7 +6692,7 @@
       <c r="K109" s="3">
         <v>84</v>
       </c>
-      <c r="L109" s="6"/>
+      <c r="L109" s="3"/>
       <c r="M109" s="3">
         <v>6</v>
       </c>
@@ -6767,14 +6749,14 @@
       <c r="K110" s="4">
         <v>54.4</v>
       </c>
-      <c r="L110" s="6"/>
+      <c r="L110" s="3"/>
       <c r="M110" s="3">
         <v>0</v>
       </c>
       <c r="N110" s="3">
         <v>1</v>
       </c>
-      <c r="O110" s="5"/>
+      <c r="O110" s="4"/>
       <c r="P110" s="3">
         <v>4</v>
       </c>
@@ -6940,7 +6922,7 @@
       <c r="K113" s="4">
         <v>79.7</v>
       </c>
-      <c r="L113" s="6"/>
+      <c r="L113" s="3"/>
       <c r="M113" s="3">
         <v>3</v>
       </c>
@@ -7053,7 +7035,7 @@
       <c r="J115" s="4">
         <v>11.3</v>
       </c>
-      <c r="K115" s="5"/>
+      <c r="K115" s="4"/>
       <c r="L115" s="3">
         <v>0</v>
       </c>
@@ -7122,7 +7104,7 @@
       <c r="N116" s="3">
         <v>0</v>
       </c>
-      <c r="O116" s="5"/>
+      <c r="O116" s="4"/>
       <c r="P116" s="3">
         <v>5</v>
       </c>
@@ -7170,7 +7152,7 @@
       <c r="K117" s="3">
         <v>71</v>
       </c>
-      <c r="L117" s="6"/>
+      <c r="L117" s="3"/>
       <c r="M117" s="3">
         <v>6</v>
       </c>
@@ -7227,7 +7209,7 @@
       <c r="K118" s="4">
         <v>84.5</v>
       </c>
-      <c r="L118" s="6"/>
+      <c r="L118" s="3"/>
       <c r="M118" s="3">
         <v>6</v>
       </c>
@@ -7340,15 +7322,15 @@
       <c r="J120" s="4">
         <v>6.2</v>
       </c>
-      <c r="K120" s="5"/>
-      <c r="L120" s="6"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="3"/>
       <c r="M120" s="3">
         <v>26</v>
       </c>
       <c r="N120" s="3">
         <v>0</v>
       </c>
-      <c r="O120" s="5"/>
+      <c r="O120" s="4"/>
       <c r="P120" s="3">
         <v>4</v>
       </c>
@@ -7405,7 +7387,7 @@
       <c r="N121" s="3">
         <v>1</v>
       </c>
-      <c r="O121" s="5"/>
+      <c r="O121" s="4"/>
       <c r="P121" s="3">
         <v>4</v>
       </c>
@@ -7509,15 +7491,15 @@
       <c r="J123" s="4">
         <v>11.1</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="6"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="3"/>
       <c r="M123" s="3">
         <v>9</v>
       </c>
       <c r="N123" s="3">
         <v>0</v>
       </c>
-      <c r="O123" s="5"/>
+      <c r="O123" s="4"/>
       <c r="P123" s="3">
         <v>3</v>
       </c>
@@ -7565,7 +7547,7 @@
       <c r="K124" s="3">
         <v>79</v>
       </c>
-      <c r="L124" s="6"/>
+      <c r="L124" s="3"/>
       <c r="M124" s="3">
         <v>15</v>
       </c>
@@ -7631,7 +7613,7 @@
       <c r="N125" s="3">
         <v>1</v>
       </c>
-      <c r="O125" s="5"/>
+      <c r="O125" s="4"/>
       <c r="P125" s="3">
         <v>7</v>
       </c>
@@ -7658,7 +7640,7 @@
       <c r="D126" s="3">
         <v>0</v>
       </c>
-      <c r="E126" s="6"/>
+      <c r="E126" s="3"/>
       <c r="F126" s="4">
         <v>38.2</v>
       </c>
@@ -7686,7 +7668,7 @@
       <c r="N126" s="3">
         <v>1</v>
       </c>
-      <c r="O126" s="5"/>
+      <c r="O126" s="4"/>
       <c r="P126" s="3">
         <v>3</v>
       </c>
@@ -7743,7 +7725,7 @@
       <c r="N127" s="3">
         <v>1</v>
       </c>
-      <c r="O127" s="5"/>
+      <c r="O127" s="4"/>
       <c r="P127" s="3">
         <v>2</v>
       </c>
@@ -7850,7 +7832,7 @@
       <c r="K129" s="4">
         <v>83.6</v>
       </c>
-      <c r="L129" s="6"/>
+      <c r="L129" s="3"/>
       <c r="M129" s="3">
         <v>6</v>
       </c>
@@ -7907,14 +7889,14 @@
       <c r="K130" s="4">
         <v>43.3</v>
       </c>
-      <c r="L130" s="6"/>
+      <c r="L130" s="3"/>
       <c r="M130" s="3">
         <v>1</v>
       </c>
       <c r="N130" s="3">
         <v>0</v>
       </c>
-      <c r="O130" s="5"/>
+      <c r="O130" s="4"/>
       <c r="P130" s="3">
         <v>3</v>
       </c>
@@ -7962,7 +7944,7 @@
       <c r="K131" s="4">
         <v>68.2</v>
       </c>
-      <c r="L131" s="6"/>
+      <c r="L131" s="3"/>
       <c r="M131" s="3">
         <v>2</v>
       </c>
@@ -8028,7 +8010,7 @@
       <c r="N132" s="3">
         <v>0</v>
       </c>
-      <c r="O132" s="5"/>
+      <c r="O132" s="4"/>
       <c r="P132" s="3">
         <v>2</v>
       </c>
@@ -8076,7 +8058,7 @@
       <c r="K133" s="4">
         <v>70.7</v>
       </c>
-      <c r="L133" s="6"/>
+      <c r="L133" s="3"/>
       <c r="M133" s="3">
         <v>0</v>
       </c>
@@ -8133,7 +8115,7 @@
       <c r="K134" s="4">
         <v>77.5</v>
       </c>
-      <c r="L134" s="6"/>
+      <c r="L134" s="3"/>
       <c r="M134" s="3">
         <v>0</v>
       </c>
@@ -8308,14 +8290,14 @@
       <c r="K137" s="3">
         <v>79</v>
       </c>
-      <c r="L137" s="6"/>
+      <c r="L137" s="3"/>
       <c r="M137" s="3">
         <v>13</v>
       </c>
       <c r="N137" s="3">
         <v>0</v>
       </c>
-      <c r="O137" s="5"/>
+      <c r="O137" s="4"/>
       <c r="P137" s="3">
         <v>8</v>
       </c>
@@ -8422,7 +8404,7 @@
       <c r="K139" s="4">
         <v>84.3</v>
       </c>
-      <c r="L139" s="6"/>
+      <c r="L139" s="3"/>
       <c r="M139" s="3">
         <v>93</v>
       </c>
@@ -8479,14 +8461,14 @@
       <c r="K140" s="4">
         <v>72.8</v>
       </c>
-      <c r="L140" s="6"/>
+      <c r="L140" s="3"/>
       <c r="M140" s="3">
         <v>0</v>
       </c>
       <c r="N140" s="3">
         <v>0</v>
       </c>
-      <c r="O140" s="5"/>
+      <c r="O140" s="4"/>
       <c r="P140" s="3">
         <v>5</v>
       </c>
@@ -8534,12 +8516,12 @@
       <c r="K141" s="4">
         <v>93.2</v>
       </c>
-      <c r="L141" s="6"/>
+      <c r="L141" s="3"/>
       <c r="M141" s="3">
         <v>10</v>
       </c>
-      <c r="N141" s="6"/>
-      <c r="O141" s="5"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="4"/>
       <c r="P141" s="3">
         <v>8</v>
       </c>
@@ -8596,7 +8578,7 @@
       <c r="N142" s="3">
         <v>1</v>
       </c>
-      <c r="O142" s="5"/>
+      <c r="O142" s="4"/>
       <c r="P142" s="3">
         <v>7</v>
       </c>
@@ -8821,7 +8803,7 @@
       <c r="K146" s="4">
         <v>75.5</v>
       </c>
-      <c r="L146" s="6"/>
+      <c r="L146" s="3"/>
       <c r="M146" s="3">
         <v>22</v>
       </c>
@@ -8875,7 +8857,7 @@
       <c r="J147" s="4">
         <v>11.9</v>
       </c>
-      <c r="K147" s="5"/>
+      <c r="K147" s="4"/>
       <c r="L147" s="3">
         <v>0</v>
       </c>
@@ -8885,7 +8867,7 @@
       <c r="N147" s="3">
         <v>0</v>
       </c>
-      <c r="O147" s="5"/>
+      <c r="O147" s="4"/>
       <c r="P147" s="3">
         <v>6</v>
       </c>
@@ -9051,14 +9033,14 @@
       <c r="K150" s="4">
         <v>80.9</v>
       </c>
-      <c r="L150" s="6"/>
+      <c r="L150" s="3"/>
       <c r="M150" s="3">
         <v>87</v>
       </c>
       <c r="N150" s="3">
         <v>0</v>
       </c>
-      <c r="O150" s="5"/>
+      <c r="O150" s="4"/>
       <c r="P150" s="3">
         <v>9</v>
       </c>
@@ -9233,7 +9215,7 @@
       <c r="N153" s="3">
         <v>1</v>
       </c>
-      <c r="O153" s="5"/>
+      <c r="O153" s="4"/>
       <c r="P153" s="3">
         <v>8</v>
       </c>
@@ -9278,7 +9260,7 @@
       <c r="J154" s="4">
         <v>22.9</v>
       </c>
-      <c r="K154" s="5"/>
+      <c r="K154" s="4"/>
       <c r="L154" s="3">
         <v>1</v>
       </c>
@@ -9288,7 +9270,7 @@
       <c r="N154" s="3">
         <v>0</v>
       </c>
-      <c r="O154" s="5"/>
+      <c r="O154" s="4"/>
       <c r="P154" s="3">
         <v>7</v>
       </c>
@@ -9342,8 +9324,8 @@
       <c r="M155" s="3">
         <v>3</v>
       </c>
-      <c r="N155" s="6"/>
-      <c r="O155" s="5"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="4"/>
       <c r="P155" s="3">
         <v>8</v>
       </c>
@@ -9400,7 +9382,7 @@
       <c r="N156" s="3">
         <v>0</v>
       </c>
-      <c r="O156" s="5"/>
+      <c r="O156" s="4"/>
       <c r="P156" s="3">
         <v>7</v>
       </c>
@@ -9448,7 +9430,7 @@
       <c r="K157" s="4">
         <v>73.4</v>
       </c>
-      <c r="L157" s="6"/>
+      <c r="L157" s="3"/>
       <c r="M157" s="3">
         <v>4</v>
       </c>
@@ -9505,12 +9487,12 @@
       <c r="K158" s="4">
         <v>81.7</v>
       </c>
-      <c r="L158" s="6"/>
+      <c r="L158" s="3"/>
       <c r="M158" s="3">
         <v>236</v>
       </c>
-      <c r="N158" s="6"/>
-      <c r="O158" s="5"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="4"/>
       <c r="P158" s="3">
         <v>9</v>
       </c>
@@ -9555,15 +9537,15 @@
       <c r="J159" s="4">
         <v>5.7</v>
       </c>
-      <c r="K159" s="5"/>
-      <c r="L159" s="6"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="3"/>
       <c r="M159" s="3">
         <v>8</v>
       </c>
       <c r="N159" s="3">
         <v>0</v>
       </c>
-      <c r="O159" s="5"/>
+      <c r="O159" s="4"/>
       <c r="P159" s="3">
         <v>2</v>
       </c>
@@ -9611,14 +9593,14 @@
       <c r="K160" s="4">
         <v>67.7</v>
       </c>
-      <c r="L160" s="6"/>
+      <c r="L160" s="3"/>
       <c r="M160" s="3">
         <v>152</v>
       </c>
       <c r="N160" s="3">
         <v>1</v>
       </c>
-      <c r="O160" s="5"/>
+      <c r="O160" s="4"/>
       <c r="P160" s="3">
         <v>5</v>
       </c>
@@ -9760,11 +9742,11 @@
       <c r="C163" s="3">
         <v>0</v>
       </c>
-      <c r="D163" s="6"/>
+      <c r="D163" s="3"/>
       <c r="E163" s="3">
         <v>1</v>
       </c>
-      <c r="F163" s="5"/>
+      <c r="F163" s="4"/>
       <c r="G163" s="3">
         <v>0</v>
       </c>
@@ -9839,11 +9821,11 @@
       <c r="K164" s="3">
         <v>81</v>
       </c>
-      <c r="L164" s="6"/>
+      <c r="L164" s="3"/>
       <c r="M164" s="3">
         <v>148</v>
       </c>
-      <c r="N164" s="6"/>
+      <c r="N164" s="3"/>
       <c r="O164" s="3">
         <v>15</v>
       </c>
@@ -9891,7 +9873,7 @@
       <c r="J165" s="4">
         <v>17.7</v>
       </c>
-      <c r="K165" s="5"/>
+      <c r="K165" s="4"/>
       <c r="L165" s="3">
         <v>0</v>
       </c>
@@ -9951,7 +9933,7 @@
       <c r="K166" s="4">
         <v>50.7</v>
       </c>
-      <c r="L166" s="6"/>
+      <c r="L166" s="3"/>
       <c r="M166" s="3">
         <v>13</v>
       </c>
@@ -10008,7 +9990,7 @@
       <c r="K167" s="3">
         <v>51</v>
       </c>
-      <c r="L167" s="6"/>
+      <c r="L167" s="3"/>
       <c r="M167" s="3">
         <v>5</v>
       </c>
@@ -10121,7 +10103,7 @@
       <c r="J169" s="4">
         <v>15.9</v>
       </c>
-      <c r="K169" s="5"/>
+      <c r="K169" s="4"/>
       <c r="L169" s="3">
         <v>2</v>
       </c>
@@ -10181,7 +10163,7 @@
       <c r="K170" s="4">
         <v>91.9</v>
       </c>
-      <c r="L170" s="6"/>
+      <c r="L170" s="3"/>
       <c r="M170" s="3">
         <v>81</v>
       </c>
@@ -10412,7 +10394,7 @@
       <c r="J174" s="4">
         <v>5.6</v>
       </c>
-      <c r="K174" s="5"/>
+      <c r="K174" s="4"/>
       <c r="L174" s="3">
         <v>0</v>
       </c>
@@ -10422,7 +10404,7 @@
       <c r="N174" s="3">
         <v>0</v>
       </c>
-      <c r="O174" s="5"/>
+      <c r="O174" s="4"/>
       <c r="P174" s="3">
         <v>3</v>
       </c>
@@ -10538,7 +10520,7 @@
       <c r="N176" s="3">
         <v>0</v>
       </c>
-      <c r="O176" s="5"/>
+      <c r="O176" s="4"/>
       <c r="P176" s="3">
         <v>4</v>
       </c>
@@ -10586,7 +10568,7 @@
       <c r="K177" s="4">
         <v>82.9</v>
       </c>
-      <c r="L177" s="6"/>
+      <c r="L177" s="3"/>
       <c r="M177" s="3">
         <v>0</v>
       </c>
@@ -10758,8 +10740,8 @@
       <c r="J180" s="4">
         <v>6.9</v>
       </c>
-      <c r="K180" s="5"/>
-      <c r="L180" s="6"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="3"/>
       <c r="M180" s="3">
         <v>13</v>
       </c>
@@ -10928,10 +10910,10 @@
       <c r="I183" s="3">
         <v>1</v>
       </c>
-      <c r="J183" s="5"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="6"/>
-      <c r="M183" s="5"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="4"/>
       <c r="N183" s="3">
         <v>1</v>
       </c>
@@ -10982,7 +10964,7 @@
       <c r="J184" s="3">
         <v>7</v>
       </c>
-      <c r="K184" s="5"/>
+      <c r="K184" s="4"/>
       <c r="L184" s="3">
         <v>0</v>
       </c>
@@ -10992,7 +10974,7 @@
       <c r="N184" s="3">
         <v>0</v>
       </c>
-      <c r="O184" s="5"/>
+      <c r="O184" s="4"/>
       <c r="P184" s="3">
         <v>2</v>
       </c>
@@ -11072,7 +11054,7 @@
       <c r="B186" s="3">
         <v>1</v>
       </c>
-      <c r="C186" s="6"/>
+      <c r="C186" s="3"/>
       <c r="D186" s="3">
         <v>1</v>
       </c>
@@ -11085,7 +11067,7 @@
       <c r="G186" s="3">
         <v>0</v>
       </c>
-      <c r="H186" s="6"/>
+      <c r="H186" s="3"/>
       <c r="I186" s="3">
         <v>1</v>
       </c>
@@ -11095,7 +11077,7 @@
       <c r="K186" s="4">
         <v>71.3</v>
       </c>
-      <c r="L186" s="6"/>
+      <c r="L186" s="3"/>
       <c r="M186" s="3">
         <v>5</v>
       </c>
@@ -11152,14 +11134,14 @@
       <c r="K187" s="4">
         <v>78.4</v>
       </c>
-      <c r="L187" s="6"/>
+      <c r="L187" s="3"/>
       <c r="M187" s="3">
         <v>77</v>
       </c>
       <c r="N187" s="3">
         <v>1</v>
       </c>
-      <c r="O187" s="5"/>
+      <c r="O187" s="4"/>
       <c r="P187" s="3">
         <v>8</v>
       </c>
@@ -11207,11 +11189,11 @@
       <c r="K188" s="4">
         <v>68.4</v>
       </c>
-      <c r="L188" s="6"/>
+      <c r="L188" s="3"/>
       <c r="M188" s="3">
         <v>115</v>
       </c>
-      <c r="N188" s="6"/>
+      <c r="N188" s="3"/>
       <c r="O188" s="4">
         <v>13.2</v>
       </c>
@@ -11321,7 +11303,7 @@
       <c r="K190" s="3">
         <v>74</v>
       </c>
-      <c r="L190" s="6"/>
+      <c r="L190" s="3"/>
       <c r="M190" s="3">
         <v>37</v>
       </c>
@@ -11378,14 +11360,14 @@
       <c r="K191" s="3">
         <v>84</v>
       </c>
-      <c r="L191" s="6"/>
+      <c r="L191" s="3"/>
       <c r="M191" s="3">
         <v>34</v>
       </c>
       <c r="N191" s="3">
         <v>0</v>
       </c>
-      <c r="O191" s="5"/>
+      <c r="O191" s="4"/>
       <c r="P191" s="3">
         <v>7</v>
       </c>
@@ -11430,7 +11412,7 @@
       <c r="J192" s="3">
         <v>11</v>
       </c>
-      <c r="K192" s="5"/>
+      <c r="K192" s="4"/>
       <c r="L192" s="3">
         <v>3</v>
       </c>
@@ -11667,7 +11649,7 @@
       <c r="K196" s="4">
         <v>79.8</v>
       </c>
-      <c r="L196" s="6"/>
+      <c r="L196" s="3"/>
       <c r="M196" s="3">
         <v>37</v>
       </c>
@@ -11721,8 +11703,8 @@
       <c r="J197" s="4">
         <v>13.5</v>
       </c>
-      <c r="K197" s="5"/>
-      <c r="L197" s="6"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="3"/>
       <c r="M197" s="3">
         <v>122</v>
       </c>
@@ -11838,7 +11820,7 @@
       <c r="K199" s="4">
         <v>76.6</v>
       </c>
-      <c r="L199" s="6"/>
+      <c r="L199" s="3"/>
       <c r="M199" s="3">
         <v>71</v>
       </c>
@@ -11904,7 +11886,7 @@
       <c r="N200" s="3">
         <v>0</v>
       </c>
-      <c r="O200" s="5"/>
+      <c r="O200" s="4"/>
       <c r="P200" s="3">
         <v>3</v>
       </c>
@@ -11952,12 +11934,12 @@
       <c r="K201" s="3">
         <v>82</v>
       </c>
-      <c r="L201" s="6"/>
+      <c r="L201" s="3"/>
       <c r="M201" s="3">
         <v>35</v>
       </c>
-      <c r="N201" s="6"/>
-      <c r="O201" s="5"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="4"/>
       <c r="P201" s="3">
         <v>6</v>
       </c>
@@ -12014,7 +11996,7 @@
       <c r="N202" s="3">
         <v>0</v>
       </c>
-      <c r="O202" s="5"/>
+      <c r="O202" s="4"/>
       <c r="P202" s="3">
         <v>2</v>
       </c>
@@ -12062,7 +12044,7 @@
       <c r="K203" s="4">
         <v>81.5</v>
       </c>
-      <c r="L203" s="6"/>
+      <c r="L203" s="3"/>
       <c r="M203" s="3">
         <v>4</v>
       </c>
@@ -12237,7 +12219,7 @@
       <c r="K206" s="4">
         <v>80.7</v>
       </c>
-      <c r="L206" s="6"/>
+      <c r="L206" s="3"/>
       <c r="M206" s="3">
         <v>1</v>
       </c>
@@ -12350,7 +12332,7 @@
       <c r="J208" s="3">
         <v>19</v>
       </c>
-      <c r="K208" s="5"/>
+      <c r="K208" s="4"/>
       <c r="L208" s="3">
         <v>0</v>
       </c>
@@ -12410,14 +12392,14 @@
       <c r="K209" s="4">
         <v>75.2</v>
       </c>
-      <c r="L209" s="6"/>
+      <c r="L209" s="3"/>
       <c r="M209" s="3">
         <v>6</v>
       </c>
       <c r="N209" s="3">
         <v>1</v>
       </c>
-      <c r="O209" s="5"/>
+      <c r="O209" s="4"/>
       <c r="P209" s="3">
         <v>9</v>
       </c>
@@ -12465,7 +12447,7 @@
       <c r="K210" s="4">
         <v>87.1</v>
       </c>
-      <c r="L210" s="6"/>
+      <c r="L210" s="3"/>
       <c r="M210" s="3">
         <v>20</v>
       </c>
@@ -12640,11 +12622,11 @@
       <c r="K213" s="4">
         <v>81.8</v>
       </c>
-      <c r="L213" s="6"/>
+      <c r="L213" s="3"/>
       <c r="M213" s="3">
         <v>339</v>
       </c>
-      <c r="N213" s="6"/>
+      <c r="N213" s="3"/>
       <c r="O213" s="3">
         <v>8</v>
       </c>
@@ -12754,7 +12736,7 @@
       <c r="K215" s="4">
         <v>71.1</v>
       </c>
-      <c r="L215" s="6"/>
+      <c r="L215" s="3"/>
       <c r="M215" s="3">
         <v>9</v>
       </c>
@@ -12870,7 +12852,7 @@
       <c r="K217" s="4">
         <v>78.9</v>
       </c>
-      <c r="L217" s="6"/>
+      <c r="L217" s="3"/>
       <c r="M217" s="3">
         <v>7</v>
       </c>
@@ -12927,14 +12909,14 @@
       <c r="K218" s="3">
         <v>65</v>
       </c>
-      <c r="L218" s="6"/>
+      <c r="L218" s="3"/>
       <c r="M218" s="3">
         <v>0</v>
       </c>
       <c r="N218" s="3">
         <v>1</v>
       </c>
-      <c r="O218" s="5"/>
+      <c r="O218" s="4"/>
       <c r="P218" s="3">
         <v>5</v>
       </c>
@@ -12982,7 +12964,7 @@
       <c r="K219" s="4">
         <v>71.9</v>
       </c>
-      <c r="L219" s="6"/>
+      <c r="L219" s="3"/>
       <c r="M219" s="3">
         <v>1</v>
       </c>
@@ -13039,7 +13021,7 @@
       <c r="K220" s="4">
         <v>90.5</v>
       </c>
-      <c r="L220" s="6"/>
+      <c r="L220" s="3"/>
       <c r="M220" s="3">
         <v>44</v>
       </c>
@@ -13155,14 +13137,14 @@
       <c r="K222" s="4">
         <v>55.5</v>
       </c>
-      <c r="L222" s="6"/>
+      <c r="L222" s="3"/>
       <c r="M222" s="3">
         <v>2</v>
       </c>
       <c r="N222" s="3">
         <v>0</v>
       </c>
-      <c r="O222" s="5"/>
+      <c r="O222" s="4"/>
       <c r="P222" s="3">
         <v>4</v>
       </c>
@@ -13219,7 +13201,7 @@
       <c r="N223" s="3">
         <v>0</v>
       </c>
-      <c r="O223" s="5"/>
+      <c r="O223" s="4"/>
       <c r="P223" s="3">
         <v>6</v>
       </c>
@@ -13382,7 +13364,7 @@
       <c r="J226" s="4">
         <v>20.9</v>
       </c>
-      <c r="K226" s="5"/>
+      <c r="K226" s="4"/>
       <c r="L226" s="3">
         <v>0</v>
       </c>
@@ -13442,14 +13424,14 @@
       <c r="K227" s="4">
         <v>43.5</v>
       </c>
-      <c r="L227" s="6"/>
+      <c r="L227" s="3"/>
       <c r="M227" s="3">
         <v>2</v>
       </c>
       <c r="N227" s="3">
         <v>1</v>
       </c>
-      <c r="O227" s="5"/>
+      <c r="O227" s="4"/>
       <c r="P227" s="3">
         <v>4</v>
       </c>
@@ -13556,7 +13538,7 @@
       <c r="K229" s="4">
         <v>86.7</v>
       </c>
-      <c r="L229" s="6"/>
+      <c r="L229" s="3"/>
       <c r="M229" s="3">
         <v>117</v>
       </c>
@@ -13672,7 +13654,7 @@
       <c r="K231" s="4">
         <v>52.9</v>
       </c>
-      <c r="L231" s="6"/>
+      <c r="L231" s="3"/>
       <c r="M231" s="3">
         <v>1</v>
       </c>
@@ -13729,7 +13711,7 @@
       <c r="K232" s="4">
         <v>79.9</v>
       </c>
-      <c r="L232" s="6"/>
+      <c r="L232" s="3"/>
       <c r="M232" s="3">
         <v>17</v>
       </c>
@@ -13786,7 +13768,7 @@
       <c r="K233" s="4">
         <v>80.8</v>
       </c>
-      <c r="L233" s="6"/>
+      <c r="L233" s="3"/>
       <c r="M233" s="3">
         <v>23</v>
       </c>
@@ -13852,7 +13834,7 @@
       <c r="N234" s="3">
         <v>0</v>
       </c>
-      <c r="O234" s="5"/>
+      <c r="O234" s="4"/>
       <c r="P234" s="3">
         <v>4</v>
       </c>
@@ -13900,7 +13882,7 @@
       <c r="K235" s="4">
         <v>54.1</v>
       </c>
-      <c r="L235" s="6"/>
+      <c r="L235" s="3"/>
       <c r="M235" s="3">
         <v>0</v>
       </c>
@@ -13966,7 +13948,7 @@
       <c r="N236" s="3">
         <v>1</v>
       </c>
-      <c r="O236" s="5"/>
+      <c r="O236" s="4"/>
       <c r="P236" s="3">
         <v>6</v>
       </c>
@@ -14070,8 +14052,8 @@
       <c r="J238" s="4">
         <v>19.8</v>
       </c>
-      <c r="K238" s="5"/>
-      <c r="L238" s="6"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="3"/>
       <c r="M238" s="3">
         <v>185</v>
       </c>
@@ -14131,7 +14113,7 @@
       <c r="L239" s="3">
         <v>3</v>
       </c>
-      <c r="M239" s="5"/>
+      <c r="M239" s="4"/>
       <c r="N239" s="3">
         <v>1</v>
       </c>
@@ -14312,7 +14294,7 @@
       <c r="N242" s="3">
         <v>0</v>
       </c>
-      <c r="O242" s="5"/>
+      <c r="O242" s="4"/>
       <c r="P242" s="3">
         <v>3</v>
       </c>
@@ -14425,8 +14407,8 @@
       <c r="M244" s="3">
         <v>0</v>
       </c>
-      <c r="N244" s="6"/>
-      <c r="O244" s="5"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="4"/>
       <c r="P244" s="3">
         <v>2</v>
       </c>
@@ -14483,7 +14465,7 @@
       <c r="N245" s="3">
         <v>0</v>
       </c>
-      <c r="O245" s="5"/>
+      <c r="O245" s="4"/>
       <c r="P245" s="3">
         <v>9</v>
       </c>
@@ -14540,7 +14522,7 @@
       <c r="N246" s="3">
         <v>0</v>
       </c>
-      <c r="O246" s="5"/>
+      <c r="O246" s="4"/>
       <c r="P246" s="3">
         <v>5</v>
       </c>
@@ -14597,7 +14579,7 @@
       <c r="N247" s="3">
         <v>0</v>
       </c>
-      <c r="O247" s="5"/>
+      <c r="O247" s="4"/>
       <c r="P247" s="3">
         <v>3</v>
       </c>
@@ -14654,7 +14636,7 @@
       <c r="N248" s="3">
         <v>0</v>
       </c>
-      <c r="O248" s="5"/>
+      <c r="O248" s="4"/>
       <c r="P248" s="3">
         <v>7</v>
       </c>
@@ -14702,7 +14684,7 @@
       <c r="K249" s="3">
         <v>83</v>
       </c>
-      <c r="L249" s="6"/>
+      <c r="L249" s="3"/>
       <c r="M249" s="3">
         <v>26</v>
       </c>
@@ -14933,7 +14915,7 @@
       <c r="J253" s="4">
         <v>10.5</v>
       </c>
-      <c r="K253" s="5"/>
+      <c r="K253" s="4"/>
       <c r="L253" s="3">
         <v>0</v>
       </c>
@@ -14943,7 +14925,7 @@
       <c r="N253" s="3">
         <v>0</v>
       </c>
-      <c r="O253" s="5"/>
+      <c r="O253" s="4"/>
       <c r="P253" s="3">
         <v>5</v>
       </c>
@@ -14988,7 +14970,7 @@
       <c r="J254" s="3">
         <v>6</v>
       </c>
-      <c r="K254" s="5"/>
+      <c r="K254" s="4"/>
       <c r="L254" s="3">
         <v>1</v>
       </c>
@@ -15057,7 +15039,7 @@
       <c r="N255" s="3">
         <v>0</v>
       </c>
-      <c r="O255" s="5"/>
+      <c r="O255" s="4"/>
       <c r="P255" s="3">
         <v>9</v>
       </c>
@@ -15161,8 +15143,8 @@
       <c r="J257" s="3">
         <v>4</v>
       </c>
-      <c r="K257" s="5"/>
-      <c r="L257" s="6"/>
+      <c r="K257" s="4"/>
+      <c r="L257" s="3"/>
       <c r="M257" s="3">
         <v>2</v>
       </c>
@@ -15228,7 +15210,7 @@
       <c r="N258" s="3">
         <v>1</v>
       </c>
-      <c r="O258" s="5"/>
+      <c r="O258" s="4"/>
       <c r="P258" s="3">
         <v>9</v>
       </c>
@@ -15285,7 +15267,7 @@
       <c r="N259" s="3">
         <v>1</v>
       </c>
-      <c r="O259" s="5"/>
+      <c r="O259" s="4"/>
       <c r="P259" s="3">
         <v>8</v>
       </c>
@@ -15333,7 +15315,7 @@
       <c r="K260" s="4">
         <v>86.2</v>
       </c>
-      <c r="L260" s="6"/>
+      <c r="L260" s="3"/>
       <c r="M260" s="3">
         <v>3</v>
       </c>
@@ -15390,7 +15372,7 @@
       <c r="K261" s="4">
         <v>84.5</v>
       </c>
-      <c r="L261" s="6"/>
+      <c r="L261" s="3"/>
       <c r="M261" s="3">
         <v>0</v>
       </c>
@@ -15574,7 +15556,7 @@
       <c r="N264" s="3">
         <v>0</v>
       </c>
-      <c r="O264" s="5"/>
+      <c r="O264" s="4"/>
       <c r="P264" s="3">
         <v>8</v>
       </c>
@@ -15619,8 +15601,8 @@
       <c r="J265" s="3">
         <v>7</v>
       </c>
-      <c r="K265" s="5"/>
-      <c r="L265" s="6"/>
+      <c r="K265" s="4"/>
+      <c r="L265" s="3"/>
       <c r="M265" s="3">
         <v>5</v>
       </c>
@@ -15842,7 +15824,7 @@
       <c r="G269" s="3">
         <v>1</v>
       </c>
-      <c r="H269" s="6"/>
+      <c r="H269" s="3"/>
       <c r="I269" s="3">
         <v>0</v>
       </c>
@@ -15979,7 +15961,7 @@
       <c r="N271" s="3">
         <v>0</v>
       </c>
-      <c r="O271" s="5"/>
+      <c r="O271" s="4"/>
       <c r="P271" s="3">
         <v>5</v>
       </c>
@@ -16269,7 +16251,7 @@
       <c r="M276" s="3">
         <v>26</v>
       </c>
-      <c r="N276" s="6"/>
+      <c r="N276" s="3"/>
       <c r="O276" s="4">
         <v>5.5</v>
       </c>
@@ -16320,7 +16302,7 @@
       <c r="K277" s="4">
         <v>77.3</v>
       </c>
-      <c r="L277" s="6"/>
+      <c r="L277" s="3"/>
       <c r="M277" s="3">
         <v>1</v>
       </c>
@@ -16386,7 +16368,7 @@
       <c r="N278" s="3">
         <v>1</v>
       </c>
-      <c r="O278" s="5"/>
+      <c r="O278" s="4"/>
       <c r="P278" s="3">
         <v>7</v>
       </c>
@@ -16434,7 +16416,7 @@
       <c r="K279" s="4">
         <v>81.8</v>
       </c>
-      <c r="L279" s="6"/>
+      <c r="L279" s="3"/>
       <c r="M279" s="3">
         <v>20</v>
       </c>
@@ -16488,8 +16470,8 @@
       <c r="J280" s="4">
         <v>7.9</v>
       </c>
-      <c r="K280" s="5"/>
-      <c r="L280" s="6"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="3"/>
       <c r="M280" s="3">
         <v>29</v>
       </c>
@@ -16543,15 +16525,15 @@
       <c r="J281" s="4">
         <v>7.7</v>
       </c>
-      <c r="K281" s="5"/>
+      <c r="K281" s="4"/>
       <c r="L281" s="3">
         <v>3</v>
       </c>
-      <c r="M281" s="5"/>
+      <c r="M281" s="4"/>
       <c r="N281" s="3">
         <v>1</v>
       </c>
-      <c r="O281" s="5"/>
+      <c r="O281" s="4"/>
       <c r="P281" s="3">
         <v>4</v>
       </c>
@@ -16776,14 +16758,14 @@
       <c r="K285" s="4">
         <v>94.1</v>
       </c>
-      <c r="L285" s="6"/>
+      <c r="L285" s="3"/>
       <c r="M285" s="3">
         <v>12</v>
       </c>
       <c r="N285" s="3">
         <v>1</v>
       </c>
-      <c r="O285" s="5"/>
+      <c r="O285" s="4"/>
       <c r="P285" s="3">
         <v>7</v>
       </c>
@@ -16840,7 +16822,7 @@
       <c r="N286" s="3">
         <v>1</v>
       </c>
-      <c r="O286" s="5"/>
+      <c r="O286" s="4"/>
       <c r="P286" s="3">
         <v>9</v>
       </c>
@@ -16888,14 +16870,14 @@
       <c r="K287" s="4">
         <v>45.3</v>
       </c>
-      <c r="L287" s="6"/>
+      <c r="L287" s="3"/>
       <c r="M287" s="3">
         <v>44</v>
       </c>
       <c r="N287" s="3">
         <v>0</v>
       </c>
-      <c r="O287" s="5"/>
+      <c r="O287" s="4"/>
       <c r="P287" s="3">
         <v>2</v>
       </c>
@@ -17058,8 +17040,8 @@
       <c r="J290" s="4">
         <v>11.5</v>
       </c>
-      <c r="K290" s="5"/>
-      <c r="L290" s="6"/>
+      <c r="K290" s="4"/>
+      <c r="L290" s="3"/>
       <c r="M290" s="4">
         <v>6.9</v>
       </c>
